--- a/Administrative Control Matrix and Assessment.xlsx
+++ b/Administrative Control Matrix and Assessment.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Dropbox (The Moresby Group)\My PC (DESKTOP-BVMRTC7)\Desktop\Cybersecurity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D363A8-2975-44E2-BF56-4CBCD7612BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4478E98-F826-439B-8B0D-0B2A72179201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18950" yWindow="5560" windowWidth="19920" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Administrative Controls</t>
   </si>
@@ -178,13 +189,66 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Current assets</t>
+  </si>
+  <si>
+    <t>Required Controls To Protect Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-premises equipment for in-office business needs  </t>
+  </si>
+  <si>
+    <t>Employee equipment: end-user devices (desktops/laptops, smartphones), remote workstations, headsets, cables, keyboards, mice, docking stations, surveillance cameras, etc.</t>
+  </si>
+  <si>
+    <t>Management of systems, software, and services: accounting, telecommunication, database, security, ecommerce, and inventory management</t>
+  </si>
+  <si>
+    <t>Internet access</t>
+  </si>
+  <si>
+    <t>Vendor access management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data center hosting services  </t>
+  </si>
+  <si>
+    <t>Data retention and storage</t>
+  </si>
+  <si>
+    <t>Badge readers</t>
+  </si>
+  <si>
+    <r>
+      <t>Legacy system maintenance: end-of-life systems that require human monitoring</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Google Sans"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Internal network</t>
+  </si>
+  <si>
+    <t>Assets managed by the IT Department include</t>
+  </si>
+  <si>
+    <t>Technical Controls, Admin Controls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +267,32 @@
       <color theme="1"/>
       <name val="Google Sans"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +320,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,8 +400,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -311,18 +444,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -332,14 +453,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,388 +739,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E30"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="17.88671875" style="4"/>
+    <col min="1" max="1" width="3.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="78.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:8" ht="15.6">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="2:5" ht="31.2">
-      <c r="B2" s="5" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="2:8" ht="31.2">
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:8" ht="30">
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="90">
+    <row r="4" spans="2:8" ht="90">
       <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="45">
+    <row r="5" spans="2:8" ht="45">
       <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15">
+    <row r="6" spans="2:8" ht="27.6">
       <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="30">
+    <row r="7" spans="2:8" ht="30">
       <c r="B7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30">
+    <row r="8" spans="2:8" ht="30">
       <c r="B8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.6">
-      <c r="B11" s="8" t="s">
+    <row r="9" spans="2:8" ht="15">
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" ht="15">
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.6">
+      <c r="B11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="31.2">
-      <c r="B12" s="5" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="2:8" ht="31.2">
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30">
+    <row r="13" spans="2:8" ht="30">
       <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:8" ht="30">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:8" ht="30">
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:8" ht="30">
+      <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="5:8" ht="15">
+      <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="5:8" ht="15">
+      <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="5:8" ht="30">
+      <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15">
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" ht="15">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.6">
-      <c r="B22" s="11" t="s">
+    <row r="20" spans="5:8" ht="15">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="5:8" ht="15">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="5:8" ht="15.6">
+      <c r="E22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="2:5" ht="31.2">
-      <c r="B23" s="5" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="5:8" ht="31.2">
+      <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="H23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="5:8" ht="15">
+      <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15">
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="5:8" ht="15">
+      <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="F25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30">
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="5:8" ht="30">
+      <c r="E26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="F26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="G26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="5:8" ht="45">
+      <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="5:8" ht="15">
+      <c r="E28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="F28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="5:8" ht="15">
+      <c r="E29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="F29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="G29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30">
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="5:8" ht="30">
+      <c r="E30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B11:E11"/>
+  <mergeCells count="4">
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8 E13:E19 E24:E30" xr:uid="{70C8CA41-51E2-48B4-837F-FF1383E79EE4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8 H13:H19 H24:H30" xr:uid="{70C8CA41-51E2-48B4-837F-FF1383E79EE4}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
